--- a/weights.xlsx
+++ b/weights.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\G-Doc\YandexDisk\Job\Компьютерная академия Шаг\Python web\115\projects\1\_ref1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB2A7C9-FD6D-4DAD-8B91-27A8A27BCC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F061131D-B347-4D5C-A1A2-DF7DE6B9C9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="390" windowWidth="16065" windowHeight="12060" activeTab="1" xr2:uid="{5C683CB4-2483-476D-A531-D3D6E1C0CA48}"/>
+    <workbookView xWindow="6810" yWindow="2295" windowWidth="16065" windowHeight="12390" activeTab="1" xr2:uid="{5C683CB4-2483-476D-A531-D3D6E1C0CA48}"/>
   </bookViews>
   <sheets>
     <sheet name="Веса пустых" sheetId="2" r:id="rId1"/>
     <sheet name="Партия 1" sheetId="1" r:id="rId2"/>
     <sheet name="Партия 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>матрица принятия решения</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>остальных последовательностей этой ячейки</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -573,72 +579,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6AFB14-78A3-4DF0-8B71-4BD15BD38968}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="4.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1"/>
+    <col min="1" max="4" width="4.7109375" style="1"/>
     <col min="5" max="7" width="4.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="4.7109375" style="1"/>
+    <col min="8" max="8" width="4.7109375" style="1"/>
+    <col min="9" max="11" width="4.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
-        <v>2</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="15"/>
+    <row r="7" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="20">
         <v>1</v>
       </c>
-      <c r="J8" s="19">
-        <v>2</v>
-      </c>
-      <c r="K8" s="21">
-        <v>21</v>
-      </c>
+      <c r="J8" s="21">
+        <v>2</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="20">
         <v>1</v>
       </c>
@@ -648,38 +649,46 @@
       <c r="O8" s="15">
         <v>21</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="20">
         <v>1</v>
       </c>
       <c r="R8" s="19">
         <v>2</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="21">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15"/>
+      <c r="U8" s="22">
+        <v>1</v>
+      </c>
+      <c r="V8" s="19">
+        <v>2</v>
+      </c>
+      <c r="W8" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="20">
         <v>1</v>
       </c>
-      <c r="K9" s="20">
-        <v>2</v>
-      </c>
+      <c r="K9" s="14">
+        <v>2</v>
+      </c>
+      <c r="L9" s="15"/>
       <c r="M9" s="21">
         <v>4</v>
       </c>
@@ -689,38 +698,44 @@
       <c r="O9" s="20">
         <v>2</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="20">
+        <v>1</v>
+      </c>
+      <c r="S9" s="20">
+        <v>2</v>
+      </c>
+      <c r="U9" s="23">
         <v>4</v>
       </c>
-      <c r="R9" s="20">
-        <v>1</v>
-      </c>
-      <c r="S9" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="14">
-        <v>2</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="20">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="20">
-        <v>2</v>
-      </c>
+      <c r="V9" s="20">
+        <v>1</v>
+      </c>
+      <c r="W9" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="14">
+        <v>2</v>
+      </c>
+      <c r="L10" s="15"/>
       <c r="M10" s="20">
         <v>1</v>
       </c>
@@ -731,124 +746,131 @@
       <c r="Q10" s="20">
         <v>1</v>
       </c>
-      <c r="R10" s="21">
-        <v>1</v>
-      </c>
+      <c r="R10" s="15"/>
       <c r="S10" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2</v>
-      </c>
-      <c r="K12" s="10">
+      <c r="U10" s="20">
+        <v>1</v>
+      </c>
+      <c r="V10" s="21">
+        <v>1</v>
+      </c>
+      <c r="W10" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2</v>
+      </c>
+      <c r="O12" s="10">
         <v>17</v>
       </c>
-      <c r="M12" s="14">
-        <v>1</v>
-      </c>
-      <c r="N12" s="15">
-        <v>2</v>
-      </c>
-      <c r="O12" s="15">
+      <c r="Q12" s="14">
+        <v>1</v>
+      </c>
+      <c r="R12" s="15">
+        <v>2</v>
+      </c>
+      <c r="S12" s="15">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="11">
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="11">
         <v>4</v>
       </c>
-      <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="K13" s="13">
-        <v>2</v>
-      </c>
-      <c r="M13" s="15">
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="15">
         <v>4</v>
       </c>
-      <c r="N13" s="14">
-        <v>1</v>
-      </c>
-      <c r="O13" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13">
-        <v>2</v>
-      </c>
-      <c r="M14" s="14">
-        <v>1</v>
-      </c>
-      <c r="N14" s="15">
-        <v>1</v>
-      </c>
-      <c r="O14" s="14">
+      <c r="R13" s="14">
+        <v>1</v>
+      </c>
+      <c r="S13" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="15">
+        <v>1</v>
+      </c>
+      <c r="S14" s="14">
         <v>2</v>
       </c>
     </row>
@@ -862,9 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE9362-8492-45E5-BFC9-C064696943EB}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1207,7 +1227,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1231,39 +1251,39 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <f>A2+A12</f>
+        <f t="shared" ref="E2:G4" si="0">A2+A12</f>
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <f>B2+B12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>C2+C12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I2" s="1">
-        <f>E2+E12</f>
+        <f t="shared" ref="I2:K4" si="1">E2+E12</f>
         <v>8</v>
       </c>
       <c r="J2" s="1">
-        <f>F2+F12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <f>G2+G12</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M2" s="1">
-        <f>I2+I12</f>
+        <f t="shared" ref="M2:O4" si="2">I2+I12</f>
         <v>8</v>
       </c>
       <c r="N2" s="1">
-        <f>J2+J12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O2" s="1">
-        <f>K2+K12</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1278,39 +1298,39 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f>A3+A13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <f>B3+B13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <f>C3+C13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I3" s="1">
-        <f>E3+E13</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J3" s="1">
-        <f>F3+F13</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K3" s="1">
-        <f>G3+G13</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M3" s="1">
-        <f>I3+I13</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="N3" s="1">
-        <f>J3+J13</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O3" s="1">
-        <f>K3+K13</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -1325,39 +1345,39 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <f>A4+A14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F4" s="1">
-        <f>B4+B14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>C4+C14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I4" s="1">
-        <f>E4+E14</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J4" s="1">
-        <f>F4+F14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f>G4+G14</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M4" s="1">
-        <f>I4+I14</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N4" s="1">
-        <f>J4+J14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <f>K4+K14</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
